--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:02:07+00:00</t>
+    <t>2021-12-10T20:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:11:58+00:00</t>
+    <t>2021-12-10T22:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:42:34+00:00</t>
+    <t>2021-12-15T00:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="120">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T00:34:29+00:00</t>
+    <t>2021-12-21T21:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: WHO Digital Documentation of COVID Certificates</t>
@@ -256,7 +259,7 @@
 </t>
   </si>
   <si>
-    <t>The full name of the vaccinated person.</t>
+    <t>The full name of the person.</t>
   </si>
   <si>
     <t>Patient.name.text</t>
@@ -272,7 +275,7 @@
     <t>Date of birth</t>
   </si>
   <si>
-    <t>The vaccinated person's date of birth (DOB) if known. If unknown, use given DOB for administrative purposes</t>
+    <t>The person's date of birth (DOB) if known. If unknown, use given DOB for administrative purposes</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
@@ -288,32 +291,10 @@
     <t>Unique identifier</t>
   </si>
   <si>
-    <t>Unique identifier for the vaccinated person, according to the policies applicable to each country. There can be more than one unique identifier used to link records. (e.g. national ID, health ID, immunization information system ID, medical record ID).</t>
+    <t>Unique identifier for the person, according to the policies applicable to each country. There can be more than one unique identifier used to link records. (e.g. national ID, health ID, immunization information system ID, medical record ID).</t>
   </si>
   <si>
     <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t>DDCCCoreDataSet.sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Documentation of a specific instance of sex information for the vaccinated person.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
-  </si>
-  <si>
-    <t>Patient.gender</t>
   </si>
   <si>
     <t>DDCCCoreDataSet.certificate</t>
@@ -342,6 +323,9 @@
     <t>Certificate issuer.</t>
   </si>
   <si>
+    <t>Composition.author.identifier</t>
+  </si>
+  <si>
     <t>DDCCCoreDataSet.certificate.hcid</t>
   </si>
   <si>
@@ -349,6 +333,12 @@
   </si>
   <si>
     <t>Health certificate identifier (HCID).</t>
+  </si>
+  <si>
+    <t>DDCCCoreDataSet.certificate.ddccid</t>
+  </si>
+  <si>
+    <t>DDCC Identifier</t>
   </si>
   <si>
     <t>DDCCCoreDataSet.certificate.version</t>
@@ -368,6 +358,9 @@
   </si>
   <si>
     <t>Certificate validity period.</t>
+  </si>
+  <si>
+    <t>Composition.event.period</t>
   </si>
   <si>
     <t>DDCCCoreDataSet.certificate.period.start</t>
@@ -690,7 +683,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -723,7 +716,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.63671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -734,7 +727,9 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="62.984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -846,6 +841,12 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -853,26 +854,26 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>9</v>
@@ -883,1166 +884,1240 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>6</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="X6" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y6" t="s" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T21:05:49+00:00</t>
+    <t>2022-01-10T18:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T18:47:14+00:00</t>
+    <t>2022-01-10T20:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T20:19:56+00:00</t>
+    <t>2022-01-10T22:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T22:39:32+00:00</t>
+    <t>2022-01-10T23:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T23:17:23+00:00</t>
+    <t>2022-01-14T00:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T00:18:13+00:00</t>
+    <t>2022-01-16T20:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T20:26:17+00:00</t>
+    <t>2022-01-18T14:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:34:22+00:00</t>
+    <t>2022-01-19T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T20:52:52+00:00</t>
+    <t>2022-01-24T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T12:54:27+00:00</t>
+    <t>2022-01-24T13:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:03:50+00:00</t>
+    <t>2022-01-24T15:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T15:52:44+00:00</t>
+    <t>2022-01-24T18:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T18:58:51+00:00</t>
+    <t>2022-01-24T20:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCCoreDataSet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T20:22:18+00:00</t>
+    <t>2022-01-25T14:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
